--- a/test_data/test_case.xlsx
+++ b/test_data/test_case.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22620" windowHeight="15080"/>
+    <workbookView windowHeight="16920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -91,49 +91,58 @@
     <t>$.data.accessToken</t>
   </si>
   <si>
+    <t>json键值对</t>
+  </si>
+  <si>
+    <t>{"code":0}</t>
+  </si>
+  <si>
+    <t>case02</t>
+  </si>
+  <si>
+    <t>修改城市名称</t>
+  </si>
+  <si>
+    <t>正则取值</t>
+  </si>
+  <si>
+    <t>"accessToken":"(.+?)"</t>
+  </si>
+  <si>
+    <t>正则匹配</t>
+  </si>
+  <si>
+    <t>step_02</t>
+  </si>
+  <si>
+    <t>获取城市列表</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/chinaos/buildingInfoService/api/v1/mulan/cities</t>
+  </si>
+  <si>
+    <t>{"accessToken":${token}}</t>
+  </si>
+  <si>
+    <t>case03</t>
+  </si>
+  <si>
+    <t>修改公司别名</t>
+  </si>
+  <si>
     <t>json键是否存在</t>
   </si>
   <si>
-    <t>{"errcode":0,"errmsg":"ok"}</t>
-  </si>
-  <si>
-    <t>case02</t>
-  </si>
-  <si>
-    <t>修改城市名称</t>
-  </si>
-  <si>
-    <t>{"access_token":"(.+?)","expires_in":(.+?)}</t>
-  </si>
-  <si>
-    <t>step_02</t>
-  </si>
-  <si>
-    <t>获取城市列表</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>/chinaos/buildingInfoService/api/v1/mulan/cities</t>
+    <t>{"data": {"accessToken":"(.+?)"}}</t>
   </si>
   <si>
     <t>step_03</t>
   </si>
   <si>
     <t>put</t>
-  </si>
-  <si>
-    <t>case03</t>
-  </si>
-  <si>
-    <t>修改公司别名</t>
-  </si>
-  <si>
-    <t>access_token,expires_in</t>
-  </si>
-  <si>
-    <t>获取公司列表</t>
   </si>
   <si>
     <t>/chinaos/userService/api/v1/mulan/companies/{uuid}</t>
@@ -144,12 +153,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -164,6 +173,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9.8"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -171,8 +193,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -180,7 +224,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,59 +275,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -256,7 +284,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -265,44 +309,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,187 +332,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,8 +529,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,6 +600,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -564,201 +623,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,6 +782,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1087,13 +1105,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="17.8482142857143" customWidth="1"/>
     <col min="2" max="2" width="18.8928571428571" customWidth="1"/>
@@ -1101,7 +1119,7 @@
     <col min="4" max="4" width="19.1964285714286" customWidth="1"/>
     <col min="5" max="5" width="16.5089285714286" customWidth="1"/>
     <col min="7" max="7" width="54.9107142857143" customWidth="1"/>
-    <col min="8" max="8" width="15.0178571428571" customWidth="1"/>
+    <col min="8" max="8" width="23.5089285714286" customWidth="1"/>
     <col min="9" max="9" width="15.7142857142857" customWidth="1"/>
     <col min="10" max="10" width="10.1160714285714" customWidth="1"/>
     <col min="11" max="11" width="10.4107142857143" customWidth="1"/>
@@ -1221,127 +1239,133 @@
         <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
         <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="4:14">
       <c r="D4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="4:7">
+    <row r="5" ht="88" spans="1:14">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
       <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8">
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s">
-        <v>33</v>
+      <c r="H6" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="6" ht="88" spans="1:14">
-      <c r="A6" t="s">
+    <row r="7" spans="4:8">
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6">
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7">
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C7"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+      <formula1>"无,json键值对,json键是否存在,正则匹配"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
